--- a/heliostrome/jip_project/results/sensitivity_RMSE_Bangladesh_soil.xlsx
+++ b/heliostrome/jip_project/results/sensitivity_RMSE_Bangladesh_soil.xlsx
@@ -472,8 +472,12 @@
       <c r="C2" t="n">
         <v>101.4206824307052</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>170.0926316360552</v>
+      </c>
+      <c r="E2" t="n">
+        <v>69.1189139157115</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,8 +491,12 @@
       <c r="C3" t="n">
         <v>82.64917953363479</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>323.7513630024993</v>
+      </c>
+      <c r="E3" t="n">
+        <v>131.5597411494255</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,8 +510,12 @@
       <c r="C4" t="n">
         <v>82.6475767421103</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>332.3115709208305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>135.0382708688887</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,8 +529,12 @@
       <c r="C5" t="n">
         <v>82.64756239082047</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>341.3426931513001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>138.7081615279135</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -532,8 +548,12 @@
       <c r="C6" t="n">
         <v>82.64756239082047</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>337.6500139822693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>137.2076028549858</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -547,8 +567,12 @@
       <c r="C7" t="n">
         <v>82.66820625352813</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>322.1579657817115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130.9122475791407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -562,8 +586,12 @@
       <c r="C8" t="n">
         <v>82.64760191329805</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>326.4977305702056</v>
+      </c>
+      <c r="E8" t="n">
+        <v>132.6757562387761</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -577,8 +605,12 @@
       <c r="C9" t="n">
         <v>82.64756239082047</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>345.0297397918699</v>
+      </c>
+      <c r="E9" t="n">
+        <v>140.2064313641874</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -592,8 +624,12 @@
       <c r="C10" t="n">
         <v>82.64852859411313</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>332.9589971771539</v>
+      </c>
+      <c r="E10" t="n">
+        <v>135.3013592769354</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,8 +643,12 @@
       <c r="C11" t="n">
         <v>82.64817006407864</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>324.344311026641</v>
+      </c>
+      <c r="E11" t="n">
+        <v>131.8006917599425</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -622,8 +662,12 @@
       <c r="C12" t="n">
         <v>82.64762367468938</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>334.9287789786572</v>
+      </c>
+      <c r="E12" t="n">
+        <v>136.1018006450374</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -637,8 +681,12 @@
       <c r="C13" t="n">
         <v>90.12103386486385</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>252.2981169152331</v>
+      </c>
+      <c r="E13" t="n">
+        <v>102.5239697712078</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -652,8 +700,12 @@
       <c r="C14" t="n">
         <v>93.4399362975614</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>230.7853975591737</v>
+      </c>
+      <c r="E14" t="n">
+        <v>93.78205201167836</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -667,8 +719,12 @@
       <c r="C15" t="n">
         <v>82.99403535594504</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>318.6975205190766</v>
+      </c>
+      <c r="E15" t="n">
+        <v>129.5060595748898</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
